--- a/Complete_Reserach_LCS_Pro_1/LCS_Personality_quotient_eval/data/emp_details_analysis.xlsx
+++ b/Complete_Reserach_LCS_Pro_1/LCS_Personality_quotient_eval/data/emp_details_analysis.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -444,7 +444,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>Posturing</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>UM</t>
         </is>
       </c>
     </row>
@@ -650,6 +650,36 @@
         </is>
       </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Deepti</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
